--- a/data/trans_dic/P74B-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P74B-Estudios-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1069035792010392</v>
+        <v>0.1030800431466677</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1656628819342892</v>
+        <v>0.1648026854983007</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1562945347982702</v>
+        <v>0.1571260899528026</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8545795879312222</v>
+        <v>0.8530300716011955</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.7692710406160193</v>
+        <v>0.7682125255945788</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.7492374998708676</v>
+        <v>0.7541042504219755</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4262328740197391</v>
+        <v>0.4270263338509738</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4707103144862256</v>
+        <v>0.4707504387748373</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4744193269913958</v>
+        <v>0.472896204297338</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1558106725819488</v>
+        <v>0.1564012172107366</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2330842925699005</v>
+        <v>0.2359667282559579</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2372845472241269</v>
+        <v>0.233340586330434</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9116535370805789</v>
+        <v>0.9141892777976276</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.835814586007069</v>
+        <v>0.8381729381414814</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8277949046875522</v>
+        <v>0.8336848777735273</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4841156500182556</v>
+        <v>0.4847720516472947</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5326416756688193</v>
+        <v>0.5333779241581934</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5422788763755066</v>
+        <v>0.5437337440028419</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0173648566667207</v>
+        <v>0.01669357330531663</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05048569101888203</v>
+        <v>0.05177872026533136</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06927887144410412</v>
+        <v>0.06838253378001462</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5515638577416891</v>
+        <v>0.5474652276605207</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4262269452063654</v>
+        <v>0.4196025298642101</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4792616175299343</v>
+        <v>0.4844164659363167</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1099691287582439</v>
+        <v>0.1100149498832388</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1717843061649015</v>
+        <v>0.1715083352768138</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2114107141618859</v>
+        <v>0.2120209170918393</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04331121695309526</v>
+        <v>0.04598269714462133</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09300915017931381</v>
+        <v>0.09333403257658723</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1110784701751174</v>
+        <v>0.1102176241810261</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7099563560965031</v>
+        <v>0.7087750016339689</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.542862218745373</v>
+        <v>0.5361239690419806</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5819228749079499</v>
+        <v>0.5881566994174454</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1604492540702743</v>
+        <v>0.1600171969487816</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2256076050836842</v>
+        <v>0.2247229036142117</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2636480177484446</v>
+        <v>0.2645584724906184</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02957136534435094</v>
+        <v>0.0288139733652315</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06030905989847099</v>
+        <v>0.05985312179473693</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08168923667287777</v>
+        <v>0.08758748673610645</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6198546768361347</v>
+        <v>0.5847238666208507</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4130908407962084</v>
+        <v>0.4178114264450265</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3342708291499519</v>
+        <v>0.3491716811700055</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.09611338317713891</v>
+        <v>0.09732960697462163</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1748806034898327</v>
+        <v>0.182092756442761</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1712358607956637</v>
+        <v>0.1728326010613411</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1205916487833139</v>
+        <v>0.1230071024776648</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2238421169396438</v>
+        <v>0.2100786180639117</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2049371365037693</v>
+        <v>0.2078791745677894</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9506536739172421</v>
+        <v>0.9496248183892154</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7367050603106365</v>
+        <v>0.7486376902511974</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6174502011918115</v>
+        <v>0.6229356282401407</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2120772663765149</v>
+        <v>0.2074641764419878</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3380751548048349</v>
+        <v>0.3429049564104568</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2923290774950115</v>
+        <v>0.2959337234550346</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0615872000441982</v>
+        <v>0.06277946939149749</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1066760029183578</v>
+        <v>0.1089478803590065</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.108177851969904</v>
+        <v>0.1076158009250909</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7930356921815003</v>
+        <v>0.7961499978401021</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6438810803029139</v>
+        <v>0.6483557346222826</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6272111135451599</v>
+        <v>0.632298482188187</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2837570956335702</v>
+        <v>0.2807654680396047</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3286377096866989</v>
+        <v>0.3288663844996353</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3195332693055662</v>
+        <v>0.3207294997794495</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08936730502494225</v>
+        <v>0.09100981288077629</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1452325455064035</v>
+        <v>0.1484960633895689</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1457160397672125</v>
+        <v>0.1432456787566934</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8582567288181515</v>
+        <v>0.8587744168140747</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7098494970935557</v>
+        <v>0.7124904327172231</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6916485938815021</v>
+        <v>0.6935414098177927</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3247063214644998</v>
+        <v>0.3232721470278784</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3696000783335606</v>
+        <v>0.3703963899733484</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3600361945926704</v>
+        <v>0.3608593002175395</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>64994</v>
+        <v>62669</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>90945</v>
+        <v>90473</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>63591</v>
+        <v>63929</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>388637</v>
+        <v>387932</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>428548</v>
+        <v>427958</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>332578</v>
+        <v>334739</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>452974</v>
+        <v>453817</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>520635</v>
+        <v>520680</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>403615</v>
+        <v>402319</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>94728</v>
+        <v>95087</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>127958</v>
+        <v>129541</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>96543</v>
+        <v>94939</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>414593</v>
+        <v>415746</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>465618</v>
+        <v>466932</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>367449</v>
+        <v>370064</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>514488</v>
+        <v>515186</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>589135</v>
+        <v>589950</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>461347</v>
+        <v>462585</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>11345</v>
+        <v>10907</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>35940</v>
+        <v>36860</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>55253</v>
+        <v>54538</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>76437</v>
+        <v>75869</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>135382</v>
+        <v>133278</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>189176</v>
+        <v>191210</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>87089</v>
+        <v>87125</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>176854</v>
+        <v>176570</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>252059</v>
+        <v>252786</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>28298</v>
+        <v>30043</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>66212</v>
+        <v>66443</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>88591</v>
+        <v>87904</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>98388</v>
+        <v>98224</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>172428</v>
+        <v>170288</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>229698</v>
+        <v>232159</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>127066</v>
+        <v>126724</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>232266</v>
+        <v>231355</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>314340</v>
+        <v>315425</v>
       </c>
     </row>
     <row r="12">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4560</v>
+        <v>4443</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>6842</v>
+        <v>6791</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>12074</v>
+        <v>12946</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>11606</v>
+        <v>10948</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>18168</v>
+        <v>18375</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>18972</v>
+        <v>19818</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>16619</v>
+        <v>16829</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>27533</v>
+        <v>28668</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>35029</v>
+        <v>35355</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>18594</v>
+        <v>18966</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>25396</v>
+        <v>23835</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>30292</v>
+        <v>30726</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>17799</v>
+        <v>17780</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>32400</v>
+        <v>32925</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>35044</v>
+        <v>35355</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>36670</v>
+        <v>35873</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>53225</v>
+        <v>53986</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>59800</v>
+        <v>60537</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>87177</v>
+        <v>88865</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>146607</v>
+        <v>149729</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>146281</v>
+        <v>145521</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>485398</v>
+        <v>487304</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>591528</v>
+        <v>595639</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>561584</v>
+        <v>566139</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>575342</v>
+        <v>569277</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>753570</v>
+        <v>754094</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>718180</v>
+        <v>720869</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>126500</v>
+        <v>128825</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>199596</v>
+        <v>204081</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>197041</v>
+        <v>193700</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>525318</v>
+        <v>525635</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>652132</v>
+        <v>654559</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>619279</v>
+        <v>620974</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>658371</v>
+        <v>655463</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>847497</v>
+        <v>849323</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>809214</v>
+        <v>811064</v>
       </c>
     </row>
     <row r="20">
